--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_72.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,698 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.06, 17.28)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:00.421247', '0:00:04.824512')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[('0:00:02.020000', '0:00:16.560000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1045673076923077</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(81.443752, 85.474936)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(30.552222, 37.483378)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[('0:00:13.420000', '0:00:17.820000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:00:06.940000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>schubert-winterreise_6</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3), (0.56, 4.26)]</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:13.980000', '0:00:21.500000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:09.620000', '0:00:14.180000'), ('0:00:01.880000', '0:00:06.560000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82), (32.44, 34.8)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[('0:01:11.560000', '0:01:20')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:06.060000', '0:01:08.180000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0882943143812709</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F', 'F/7', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:15.300272', '0:00:18.887755')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:08.840000', '0:00:15.860000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:00:04.260000', '0:00:08.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:14.200000', '0:00:18.800000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_173</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.36, 16.52)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3789473684210526</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[('0:00:13.336043', '0:00:26.115071'), ('0:00:17.581738', '0:00:30.271443')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08892763731473409</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min/5', 'Bb', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D:min'], ['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(28.544126, 32.259319), (13.648526, 21.12535)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.413204, 28.644826), (27.789047, 31.109501)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
